--- a/dataset_v1/task_sheet_answers/PricingTable/7_PricingTable/7_PricingTable_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/PricingTable/7_PricingTable/7_PricingTable_gt1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="8232" windowHeight="12360" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="8232" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pricing Table" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Pricing Table" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt formatCode="&quot;$&quot;#,##0.00" numFmtId="164"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -110,38 +110,38 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Percent 2" xfId="3"/>
     <cellStyle name="Normal 4" xfId="4"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -522,7 +522,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="12.6640625" customWidth="1" style="6" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" style="6" width="12.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,7 +658,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -676,8 +676,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="14.5546875" customWidth="1" style="6" min="1" max="1"/>
-    <col width="16.21875" customWidth="1" style="6" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" style="6" width="14.5546875"/>
+    <col customWidth="1" max="2" min="2" style="6" width="16.21875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -903,7 +903,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -921,7 +921,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" ht="62.4" customHeight="1" s="6">
+    <row customHeight="1" ht="62.4" r="1" s="6">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Units From</t>
@@ -938,7 +938,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.6" customHeight="1" s="6">
+    <row customHeight="1" ht="15.6" r="2" s="6">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" ht="15.6" customHeight="1" s="6">
+    <row customHeight="1" ht="15.6" r="3" s="6">
       <c r="A3" s="1" t="n">
         <v>144</v>
       </c>
@@ -960,7 +960,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" ht="15.6" customHeight="1" s="6">
+    <row customHeight="1" ht="15.6" r="4" s="6">
       <c r="A4" s="1" t="n">
         <v>289</v>
       </c>
@@ -971,7 +971,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" ht="15.6" customHeight="1" s="6">
+    <row customHeight="1" ht="15.6" r="5" s="6">
       <c r="A5" s="1" t="n">
         <v>578</v>
       </c>
@@ -983,6 +983,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>